--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91940\Dropbox\Perovskite - Machine Learning\Photodetectors_ML\Codes &amp; Datasets\Testing Dataset (literature)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91940\Dropbox\Perovskite - Machine Learning\Photodetectors_ML\Codes &amp; Datasets\Original Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3B330-9715-4C3B-9099-130515D1B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA7355-CA8C-4605-B47B-1F56C3057C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="88">
   <si>
     <t>Formula</t>
   </si>
@@ -58,43 +58,232 @@
     <t>Light Intensity (nM)</t>
   </si>
   <si>
-    <t>Responsivity R(A W-1)</t>
+    <t>Responsvity R (A/W)</t>
   </si>
   <si>
     <t>D (Jones)</t>
   </si>
   <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>(C5H11(NH3)2(MA)Pb2I7</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenyl Ethyl Amonium </t>
+  </si>
+  <si>
+    <t>Iodide</t>
+  </si>
+  <si>
+    <t>(PEA)2PbI4</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)2(CH3NH3)2(Pb)I4</t>
+  </si>
+  <si>
+    <t>Pbca</t>
+  </si>
+  <si>
+    <t>Butyl Ammine</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)2(CH3NH3)Pb2I7</t>
+  </si>
+  <si>
+    <t>Cmcm</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)3(CH3NH3)2Pb3I10</t>
+  </si>
+  <si>
+    <t>Cmca</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)4(CH3NH3)3Pb4I13</t>
+  </si>
+  <si>
+    <t>graphene/(PEA)2SnI4/MoS2/graphene</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)2(CH3NH3)2Pb3I10</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)2(CH3NH3)3Pb4I13</t>
+  </si>
+  <si>
+    <t>(C4H9NH3)2(CH3NH3)4Pb5I16</t>
+  </si>
+  <si>
+    <t>C2cb</t>
+  </si>
+  <si>
+    <t>(PEA)2SnI4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Graphene/MoS2/(PEA)2SnI4/graphene</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>(PA)2(G)Pb2I7</t>
+  </si>
+  <si>
+    <t>Pentylamine</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>(BA)2(MA)3Pb4I13</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>(PEA)2SnI4/MoS2</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>(PEA)2MA3Pb4I11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>(BA)2(MA)Pb2I7</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>(C5H11NH3)2(CH3NH2CH3)Pb2I7</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>PDAPbBr4</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentamethylene </t>
+  </si>
+  <si>
+    <t>Bromide</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>(BA)2PbI4</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>(3AMPY)(FA)Pb2I7</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>Aminomethylpyridinium</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>EDA(MA)3Pb4I13</t>
+  </si>
+  <si>
+    <t>Ethylenediammonium</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>(BA)2(MA)3Pb4Br13</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>(PEA)2MA3Pb4I13</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>EA4Pb3Br10</t>
+  </si>
+  <si>
+    <t>Ethyl Ammonium</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>(BA)2PbI4 (P-PDs)</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>(BA)2PbI4 (G-P-PDs)</t>
+  </si>
+  <si>
+    <t>(BA)2PbI4 (G-Au-P-PDs)</t>
+  </si>
+  <si>
+    <t>(BA)2FAPb2I7(P-PDs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (BA)2FAPb2I7(G-P-PDs)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (BA)2FAPb2I7(G-Au-P-PDs)</t>
   </si>
   <si>
-    <t>Cmcm</t>
-  </si>
-  <si>
-    <t>Butyl Ammine</t>
-  </si>
-  <si>
-    <t>Iodide</t>
-  </si>
-  <si>
-    <t>PDAPbBr4</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentamethylene </t>
-  </si>
-  <si>
-    <t>Bromide</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
+    <t>(PEA)2(MA)2Pb3I10</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>R25</t>
   </si>
 </sst>
 </file>
@@ -587,14 +776,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,164 +1138,3102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>1.96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>206</v>
+      </c>
+      <c r="J2">
+        <v>9.5</v>
+      </c>
+      <c r="K2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>29200000000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>2.06</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>206</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10700000000000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0.49</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>206</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
         <v>1.96</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>206</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="1">
+        <v>500000000000</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>1.86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>206</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>1.85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>206</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10000000000000</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0.49</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>206</v>
+      </c>
+      <c r="J8">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="1">
+        <v>400000000000</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1.96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>206</v>
+      </c>
+      <c r="J9">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.06</v>
+      </c>
+      <c r="N9" s="1">
+        <v>600000000000</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1.86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>206</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2000000000000</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>1.85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>206</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.9</v>
+      </c>
+      <c r="N11" s="1">
+        <v>50000000000000</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D12">
+        <v>0.19</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>1.88</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1">
-        <v>206</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>206</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>0.121</v>
+      </c>
+      <c r="N12" s="1">
+        <v>80900000000</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>1.96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>206</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1">
+        <v>12000000000000</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>1.86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>206</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="1">
+        <v>680000000000000</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>1.85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>206</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1E+17</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0.48</v>
+      </c>
+      <c r="F16">
+        <v>1.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>206</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1200</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45000000000000</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.19</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1.88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>206</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>650</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1">
+        <v>192000000000</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0.19</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>1.88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>206</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>650</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3290</v>
+      </c>
+      <c r="N18" s="1">
+        <v>206000000000</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.19</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>1.88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>206</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>700</v>
+      </c>
+      <c r="M19">
+        <v>0.121</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8090000000</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>0.49</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>2.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>206</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>42</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6500000000000</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>0.49</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>2.1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>206</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2300000000000</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>0.49</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>2.1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>206</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>90000000000000</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0.49</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>2.1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>206</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>70000000000000</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>0.49</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>2.1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>206</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50000000000000</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>0.49</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>2.1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>206</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45000000000000</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0.49</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>2.1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>206</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>20000000000000</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>1.85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>206</v>
+      </c>
+      <c r="J27">
+        <v>0.05</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>532</v>
+      </c>
+      <c r="M27" s="1">
+        <v>74000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1200000000000000</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>0.19</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>1.88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>206</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28">
+        <v>260</v>
+      </c>
+      <c r="N28" s="1">
+        <v>6000000000</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>0.19</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>1.88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>206</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>600</v>
+      </c>
+      <c r="M29">
+        <v>123</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>0.19</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>1.88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>206</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>650</v>
+      </c>
+      <c r="M30">
+        <v>400</v>
+      </c>
+      <c r="N30" s="1">
+        <v>8000000000</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>0.19</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>1.88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>206</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>700</v>
+      </c>
+      <c r="M31">
+        <v>110</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2500000000</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>206</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>630</v>
+      </c>
+      <c r="M32">
+        <v>0.46</v>
+      </c>
+      <c r="N32" s="1">
+        <v>600000000000</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>1.96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>206</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>590</v>
+      </c>
+      <c r="M33">
+        <v>2.96</v>
+      </c>
+      <c r="N33" s="1">
+        <v>27000000000000</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>2.06</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>206</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>330</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>139.6</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1890000000000000</v>
+      </c>
+      <c r="O34" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>0.49</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>2.14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>206</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>90</v>
+      </c>
+      <c r="N35" s="1">
+        <v>6300000000000</v>
+      </c>
+      <c r="O35" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>1.96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>206</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>60</v>
+      </c>
+      <c r="N36" s="1">
+        <v>310000000000</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>1.96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>206</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37" s="1">
+        <v>220000000000</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>1.96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>206</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>0.01</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+      <c r="N38" s="1">
+        <v>180000000000</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>1.96</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>206</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39" s="1">
+        <v>178000000000</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>1.96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>206</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0.02</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40" s="1">
+        <v>176000000000</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>1.96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>206</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>6.5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>175000000000</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>1.96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <v>206</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>0.03</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42" s="1">
+        <v>170000000000</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>1.96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>206</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2.4</v>
+      </c>
+      <c r="N43" s="1">
+        <v>149000000000</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>1.96</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>206</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>0.04</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>148000000000</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>0.03</v>
+      </c>
+      <c r="E45">
+        <v>0.45</v>
+      </c>
+      <c r="F45">
+        <v>2.88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45">
+        <v>196</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N45" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>0.03</v>
+      </c>
+      <c r="E46">
+        <v>0.45</v>
+      </c>
+      <c r="F46">
+        <v>2.88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46">
+        <v>196</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N46" s="1">
+        <v>49000000000</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>0.03</v>
+      </c>
+      <c r="E47">
+        <v>0.45</v>
+      </c>
+      <c r="F47">
+        <v>2.88</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47">
+        <v>196</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>3.8E-3</v>
+      </c>
+      <c r="N47" s="1">
+        <v>39000000000</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>0.03</v>
+      </c>
+      <c r="E48">
+        <v>0.45</v>
+      </c>
+      <c r="F48">
+        <v>2.88</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48">
+        <v>196</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>1E-3</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N48" s="1">
+        <v>38000000000</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>0.03</v>
+      </c>
+      <c r="E49">
+        <v>0.45</v>
+      </c>
+      <c r="F49">
+        <v>2.88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49">
+        <v>196</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N49" s="1">
+        <v>38500000000</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50">
+        <v>0.45</v>
+      </c>
+      <c r="F50">
+        <v>2.88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50">
+        <v>196</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N50" s="1">
+        <v>38800000000</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>0.49</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>206</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>525</v>
+      </c>
+      <c r="M51">
+        <v>0.1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>500000000000</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2.02</v>
+      </c>
+      <c r="G52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>206</v>
+      </c>
+      <c r="J52">
+        <v>200</v>
+      </c>
+      <c r="K52" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0.23</v>
+      </c>
+      <c r="N52" s="1">
+        <v>6000000000000</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>206</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>532</v>
+      </c>
+      <c r="M53">
+        <v>0.125</v>
+      </c>
+      <c r="N53" s="1">
+        <v>300000000000</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>1.96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>196</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>530</v>
+      </c>
+      <c r="M54" s="1">
+        <v>15000</v>
+      </c>
+      <c r="N54" s="1">
+        <v>7450000000000000</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>206</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>570</v>
+      </c>
+      <c r="M55">
+        <v>0.44</v>
+      </c>
+      <c r="N55" s="1">
+        <v>3380000000000</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>1.96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>206</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>500</v>
+      </c>
+      <c r="M56" s="1">
+        <v>15000</v>
+      </c>
+      <c r="N56" s="1">
+        <v>7000000000000000</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>0.19</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>1.88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>206</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>14.57</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1700000000000</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>0.49</v>
+      </c>
+      <c r="E58">
+        <v>0.49</v>
+      </c>
+      <c r="F58">
+        <v>2.75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58">
+        <v>196</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>400</v>
+      </c>
+      <c r="M58">
+        <v>0.437</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2550000000000</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>0.49</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>206</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="N59" s="1">
+        <v>37700000000</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>0.49</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>206</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1.29</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1520000000000</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>0.49</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61">
+        <v>206</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>5.03</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5930000000000</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>1.96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>206</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0.16</v>
+      </c>
+      <c r="N62" s="1">
+        <v>190000000000</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>1.96</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63">
+        <v>206</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>12.25</v>
+      </c>
+      <c r="N63" s="1">
+        <v>14400000000000</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>0.5</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>1.96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64">
+        <v>206</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>18.71</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N64" s="1">
         <v>22100000000000</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1">
-        <v>196</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N3" s="2">
-        <v>38500000000</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O64" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65">
+        <v>0.15</v>
+      </c>
+      <c r="E65">
+        <v>0.46</v>
+      </c>
+      <c r="F65">
+        <v>2.06</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65">
+        <v>206</v>
+      </c>
+      <c r="J65">
+        <v>9</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>149</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2000000000000</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{620720AD-4671-406D-A84C-7E26271135E9}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{CE5DD4A5-EB9D-49DF-8DB5-2B0B46B5FFE1}"/>
+    <hyperlink ref="O54" r:id="rId1" xr:uid="{0A7075A5-FC8A-43EB-B881-D8D93A02609A}"/>
+    <hyperlink ref="O55" r:id="rId2" xr:uid="{715DCFD4-CCCF-48B7-B33C-59E66AF70A45}"/>
+    <hyperlink ref="O56" r:id="rId3" xr:uid="{601C9E4B-4A9C-43D5-9F45-81B75F2C190C}"/>
+    <hyperlink ref="O58" r:id="rId4" xr:uid="{F53D091B-C58B-4027-B004-F38ECD8E1832}"/>
+    <hyperlink ref="O57" r:id="rId5" xr:uid="{E6510489-D61B-4FE4-A747-39BEAC2E2982}"/>
+    <hyperlink ref="O59" r:id="rId6" xr:uid="{A142DAA7-E228-4CEE-9870-520588EA64C4}"/>
+    <hyperlink ref="O60" r:id="rId7" xr:uid="{A614F4BF-D8A5-46BB-98C8-8F6963E716C0}"/>
+    <hyperlink ref="O61" r:id="rId8" xr:uid="{E9264057-CF75-4968-9D31-0CBC4D292E40}"/>
+    <hyperlink ref="O62" r:id="rId9" xr:uid="{76D93D11-5A8A-492E-81CD-1451418B1792}"/>
+    <hyperlink ref="O63" r:id="rId10" xr:uid="{2B75036F-8730-4DAE-B084-0B04605AF30D}"/>
+    <hyperlink ref="O64" r:id="rId11" xr:uid="{3769463D-4AF3-45B9-A3BD-B79751596ED8}"/>
+    <hyperlink ref="O65" r:id="rId12" xr:uid="{8057D940-D5FD-4466-9B91-96170802308C}"/>
+    <hyperlink ref="O45" r:id="rId13" xr:uid="{86D8BB35-B510-4CA5-A44E-DEDAC13E1578}"/>
+    <hyperlink ref="O46" r:id="rId14" xr:uid="{A07069CD-D48A-4998-81C2-5EAAD4018637}"/>
+    <hyperlink ref="O47" r:id="rId15" xr:uid="{701C65EA-134F-4607-ACA3-F2B7749DC008}"/>
+    <hyperlink ref="O48" r:id="rId16" xr:uid="{3D0B2E60-433A-4701-A7C2-24CAFA51B0CA}"/>
+    <hyperlink ref="O49" r:id="rId17" xr:uid="{DA3AD0B9-CB0B-414E-80CB-3C4BB4DE710F}"/>
+    <hyperlink ref="O50" r:id="rId18" xr:uid="{FA646888-3A52-4233-9E62-5FFF8FACEF04}"/>
+    <hyperlink ref="O51" r:id="rId19" xr:uid="{5583697A-ED9F-4A4A-92D7-C96493450167}"/>
+    <hyperlink ref="O52" r:id="rId20" xr:uid="{B1FD4372-E25F-4914-9C7B-4ECFF9330C6A}"/>
+    <hyperlink ref="O53" r:id="rId21" xr:uid="{2729F6C1-9843-4A4A-9A3D-64FB13946243}"/>
+    <hyperlink ref="O36" r:id="rId22" xr:uid="{F4EFE95C-0CF2-477F-AAC0-08DC5AA79708}"/>
+    <hyperlink ref="O37" r:id="rId23" xr:uid="{5ECA6EB3-CBAF-4DCA-AB95-83AD7927C46F}"/>
+    <hyperlink ref="O38" r:id="rId24" xr:uid="{6954547E-9DC3-443D-83C2-DF8325FC5C44}"/>
+    <hyperlink ref="O39" r:id="rId25" xr:uid="{3B743B78-86B5-4FC9-AD02-32B089BFE819}"/>
+    <hyperlink ref="O40" r:id="rId26" xr:uid="{C7A25D17-58D6-45CA-9CA6-5E66BF559D50}"/>
+    <hyperlink ref="O41" r:id="rId27" xr:uid="{5BE8BB75-C0A8-4D77-9884-D0DA9E903299}"/>
+    <hyperlink ref="O42" r:id="rId28" xr:uid="{641D761A-46E0-4FAB-BF3E-5F2822008142}"/>
+    <hyperlink ref="O43" r:id="rId29" xr:uid="{ECF83814-1AF7-4F27-9EC6-15612AB509AE}"/>
+    <hyperlink ref="O44" r:id="rId30" xr:uid="{AA01E73B-E5DC-49F8-BC02-A7ED21151AF9}"/>
+    <hyperlink ref="O21" r:id="rId31" xr:uid="{5A80EBB6-2610-4A06-A1C3-CA73537F1145}"/>
+    <hyperlink ref="O22" r:id="rId32" xr:uid="{BE732698-AB49-405D-8803-5FE152DC2584}"/>
+    <hyperlink ref="O23" r:id="rId33" xr:uid="{65576F02-3A8E-400E-9EDB-733632325643}"/>
+    <hyperlink ref="O24" r:id="rId34" xr:uid="{6F8269D2-CBB5-49A3-971F-EB481D041D9F}"/>
+    <hyperlink ref="O25" r:id="rId35" xr:uid="{6CA0C947-9914-4E89-AEAF-05DE6294A0B6}"/>
+    <hyperlink ref="O26" r:id="rId36" xr:uid="{F55C6206-00FC-4481-A5E8-750F00D196A1}"/>
+    <hyperlink ref="O27" r:id="rId37" xr:uid="{B6491B0B-DA34-4B7A-9435-B020C3F5877B}"/>
+    <hyperlink ref="O28" r:id="rId38" xr:uid="{EF140E07-D25C-44C1-8879-2A1D020B60D4}"/>
+    <hyperlink ref="O29" r:id="rId39" xr:uid="{99B8F6C6-98AE-4378-8190-9FD4160E8301}"/>
+    <hyperlink ref="O30" r:id="rId40" xr:uid="{80A3588D-61BC-48B6-947A-E0CB57239C45}"/>
+    <hyperlink ref="O31" r:id="rId41" xr:uid="{54B5B996-7EF3-474F-8588-9038EF82679D}"/>
+    <hyperlink ref="O32" r:id="rId42" xr:uid="{857ED801-4E2C-480E-AAE9-FE6299C2228C}"/>
+    <hyperlink ref="O33" r:id="rId43" xr:uid="{4FFE568C-E4AB-407E-AD7E-56348993E838}"/>
+    <hyperlink ref="O34" r:id="rId44" display="https://sci-hub.hkvisa.net/10.1039/c9se01181a" xr:uid="{5C2380D6-9C3C-4A3D-87F7-441C04C43138}"/>
+    <hyperlink ref="O35" r:id="rId45" display="https://sci-hub.hkvisa.net/10.1039/c9se01181a" xr:uid="{8DBC32CA-FF5A-4BAA-BD0C-DBDF9FDAD633}"/>
+    <hyperlink ref="O19" r:id="rId46" xr:uid="{F38DE192-8700-492B-B712-93E49EA58EDC}"/>
+    <hyperlink ref="O20" r:id="rId47" xr:uid="{0C79ED3F-B61F-44FC-8611-E88606FEA162}"/>
+    <hyperlink ref="O17" r:id="rId48" xr:uid="{28A2E31D-9F33-450C-871F-E8E713C204BB}"/>
+    <hyperlink ref="O18" r:id="rId49" xr:uid="{B259FB88-682E-48F4-82F4-CCBCB6ED8ED0}"/>
+    <hyperlink ref="O13" r:id="rId50" xr:uid="{06146893-1A08-46EB-9CFE-3152895DC324}"/>
+    <hyperlink ref="O14" r:id="rId51" xr:uid="{5D9B621E-C495-4FED-BE41-72F8498AE77C}"/>
+    <hyperlink ref="O15" r:id="rId52" xr:uid="{25AAD480-E3E4-4B42-93AB-1CB486E26988}"/>
+    <hyperlink ref="O16" r:id="rId53" xr:uid="{5A2C86FE-242B-48E9-A461-DE3F35E455BF}"/>
+    <hyperlink ref="O12" r:id="rId54" xr:uid="{53F0F3B7-A2DA-46C9-95F3-49A72BC7C274}"/>
+    <hyperlink ref="O4" r:id="rId55" xr:uid="{611E1CD8-DBD8-4CD9-A9C3-4036C5DBA544}"/>
+    <hyperlink ref="O5" r:id="rId56" xr:uid="{2E5C0CBD-4E86-410E-8801-C9479CC3FB04}"/>
+    <hyperlink ref="O6" r:id="rId57" xr:uid="{3C6EE91F-192C-403A-A169-2D5987108F9F}"/>
+    <hyperlink ref="O7" r:id="rId58" xr:uid="{62959AD9-66F4-4387-A8CB-455662C020AA}"/>
+    <hyperlink ref="O8" r:id="rId59" xr:uid="{AB59A970-AEC3-4130-9135-F8A71BF2FC90}"/>
+    <hyperlink ref="O9" r:id="rId60" xr:uid="{B78EC7A5-076E-45F0-B0E5-8F558E568990}"/>
+    <hyperlink ref="O10" r:id="rId61" xr:uid="{01648408-5559-4DE0-86FD-92DE0649583F}"/>
+    <hyperlink ref="O11" r:id="rId62" xr:uid="{83C63F01-986A-4270-A47B-A0D8E2D0ECA8}"/>
+    <hyperlink ref="O2" r:id="rId63" display="https://sci-hub.hkvisa.net/10.1002/lpor.201800060" xr:uid="{5CE9FDA7-D33D-4980-9943-3D4F6660222C}"/>
+    <hyperlink ref="O3" r:id="rId64" display="https://pubs.acs.org/doi/pdf/10.1021/acsnano.8b05859" xr:uid="{09087CE0-D901-483A-886D-3E24A11BF16A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
